--- a/design/chitiet/OrderDetail.xlsx
+++ b/design/chitiet/OrderDetail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bia" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="125">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Màn hình (ID)</t>
   </si>
   <si>
-    <t xml:space="preserve">add product </t>
+    <t xml:space="preserve">order detail </t>
   </si>
   <si>
     <t xml:space="preserve">Màn hình (Tên)</t>
   </si>
   <si>
-    <t xml:space="preserve">Màn hình đăng nhập</t>
+    <t xml:space="preserve">Màn hình chi tiết đơn hàng </t>
   </si>
   <si>
     <t xml:space="preserve">website bán đồng hồ </t>
@@ -261,9 +261,6 @@
     <t xml:space="preserve">Thái </t>
   </si>
   <si>
-    <t xml:space="preserve">Add product </t>
-  </si>
-  <si>
     <t xml:space="preserve">Lịch sử chỉnh sửa</t>
   </si>
   <si>
@@ -291,13 +288,7 @@
     <t xml:space="preserve">1. Mục đích</t>
   </si>
   <si>
-    <t xml:space="preserve">- Dùng để thêm sản phảm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Người sử dụng nhập thôn tin sản phẩm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Sau khi nhấn thêm sản phảm, trường hợp phát sinh lỗi thì hiển thị thông báo lỗi, ngược lại di chuyển đến màn hình chính</t>
+    <t xml:space="preserve">- Dùng để xem đơn hàng </t>
   </si>
   <si>
     <t xml:space="preserve">2. Giới hạn hoạt động</t>
@@ -315,13 +306,10 @@
     <t xml:space="preserve">5. Không bao gồm</t>
   </si>
   <si>
-    <t xml:space="preserve">addProduct</t>
+    <t xml:space="preserve">6. Sơ đồ</t>
   </si>
   <si>
-    <t xml:space="preserve">Màn hình thêm sản phẩm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Sơ đồ</t>
+    <t xml:space="preserve">item </t>
   </si>
   <si>
     <t xml:space="preserve">　Table</t>
@@ -348,19 +336,25 @@
     <t xml:space="preserve">User</t>
   </si>
   <si>
-    <t xml:space="preserve">Table quản lý user</t>
+    <t xml:space="preserve">Table user</t>
   </si>
   <si>
     <t xml:space="preserve">O</t>
   </si>
   <si>
-    <t xml:space="preserve">M </t>
+    <t xml:space="preserve">order_item </t>
   </si>
   <si>
-    <t xml:space="preserve">Product </t>
+    <t xml:space="preserve">Table đơn hàng </t>
   </si>
   <si>
-    <t xml:space="preserve">Table danh sách sản phảm </t>
+    <t xml:space="preserve">Order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">table sản phẩm trong đơn hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O/I</t>
   </si>
   <si>
     <r>
@@ -563,7 +557,10 @@
     <t xml:space="preserve">hủy đơn hàng </t>
   </si>
   <si>
-    <t xml:space="preserve">nêu đơn hàng có trạng thái khác “đang chờ”, thì không cho phép hủy</t>
+    <t xml:space="preserve">không cho phép hủy nếu không phải đơn của mình </t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_your_order_err</t>
   </si>
   <si>
     <t xml:space="preserve">Thông báo</t>
@@ -1009,13 +1006,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right/>
       <top style="hair"/>
       <bottom style="hair"/>
@@ -1031,6 +1021,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
       <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
@@ -1489,32 +1486,32 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -1641,23 +1638,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1665,7 +1662,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2147,9 +2144,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>35280</xdr:colOff>
+      <xdr:colOff>34560</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2163,7 +2160,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="674640" cy="968760"/>
+          <a:ext cx="673920" cy="968040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2184,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>82800</xdr:colOff>
+      <xdr:colOff>82080</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2200,7 +2197,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="674640" cy="968760"/>
+          <a:ext cx="673920" cy="968040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2221,9 +2218,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
+      <xdr:colOff>72720</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2233,7 +2230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1187280" cy="425880"/>
+          <a:ext cx="1186560" cy="425160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2272,7 +2269,7 @@
               <a:latin typeface="Arial"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>Màn hình thêm sản phẩm</a:t>
+            <a:t>Màn hình chi tiết đơn hàng </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1050" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2291,9 +2288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>120960</xdr:colOff>
+      <xdr:colOff>120240</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2303,7 +2300,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2778480" cy="2607120"/>
+          <a:ext cx="2777760" cy="2606400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2335,9 +2332,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>63720</xdr:colOff>
+      <xdr:colOff>63000</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2347,7 +2344,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="993960" cy="397080"/>
+          <a:ext cx="993240" cy="396360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2509,9 +2506,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>177840</xdr:colOff>
+      <xdr:colOff>177120</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2521,7 +2518,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="912600" cy="397440"/>
+          <a:ext cx="911880" cy="396720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2573,13 +2570,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>163800</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>68040</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>167760</xdr:rowOff>
+      <xdr:rowOff>166680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2588,8 +2585,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2582640" y="23724360"/>
-          <a:ext cx="1207080" cy="617400"/>
+          <a:off x="2582640" y="23724000"/>
+          <a:ext cx="1206360" cy="616680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2628,15 +2625,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
+      <xdr:colOff>83880</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2645,8 +2642,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3805200" y="23690880"/>
-          <a:ext cx="727200" cy="596880"/>
+          <a:off x="3804840" y="23690520"/>
+          <a:ext cx="726480" cy="596160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2691,9 +2688,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>155160</xdr:colOff>
+      <xdr:colOff>154440</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2703,7 +2700,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2177280" y="24338880"/>
-          <a:ext cx="954720" cy="644760"/>
+          <a:ext cx="954000" cy="644040"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2755,16 +2752,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>101520</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>80640</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>126000</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>104400</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2773,8 +2770,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4008600" y="24215040"/>
-          <a:ext cx="954720" cy="644760"/>
+          <a:off x="4359960" y="24279840"/>
+          <a:ext cx="954000" cy="644040"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2814,13 +2811,141 @@
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Product </a:t>
+            <a:t>Order_ item </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>93960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>178920</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3318120" y="24440040"/>
+          <a:ext cx="954000" cy="644040"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="27360" rIns="27360" tIns="18360" bIns="18360" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Order </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>20520</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>138600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>51120</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>127800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3741120" y="23627160"/>
+          <a:ext cx="30600" cy="846720"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19080">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2838,19 +2963,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>92520</xdr:colOff>
+      <xdr:colOff>91800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 1"/>
+        <xdr:cNvPr id="14" name="Rectangle 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1451880"/>
-          <a:ext cx="4815720" cy="416520"/>
+          <a:ext cx="4815000" cy="415800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2872,19 +2997,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>154800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:colOff>30960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>119880</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 1" descr=""/>
+        <xdr:cNvPr id="15" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2893,8 +3018,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="340920" y="1099800"/>
-          <a:ext cx="8570880" cy="5257080"/>
+          <a:off x="217080" y="957240"/>
+          <a:ext cx="8178840" cy="5014440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2916,8 +3041,8 @@
   </sheetPr>
   <dimension ref="A1:AX160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO125" activeCellId="0" sqref="AO125"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U126" activeCellId="0" sqref="U126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4531,7 +4656,7 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="14" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AB43" s="14"/>
       <c r="AC43" s="14"/>
@@ -4614,7 +4739,7 @@
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
       <c r="B45" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -4673,7 +4798,7 @@
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
       <c r="B47" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="30" t="s">
@@ -4684,7 +4809,7 @@
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
       <c r="I47" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J47" s="31"/>
       <c r="K47" s="31"/>
@@ -4761,27 +4886,27 @@
       <c r="AC48" s="30"/>
       <c r="AD48" s="30"/>
       <c r="AE48" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF48" s="32"/>
       <c r="AG48" s="32"/>
       <c r="AH48" s="32"/>
       <c r="AI48" s="32"/>
       <c r="AJ48" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AK48" s="32"/>
       <c r="AL48" s="32"/>
       <c r="AM48" s="32"/>
       <c r="AN48" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AO48" s="32"/>
       <c r="AP48" s="32"/>
       <c r="AQ48" s="32"/>
       <c r="AR48" s="32"/>
       <c r="AS48" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AT48" s="32"/>
       <c r="AU48" s="32"/>
@@ -4795,14 +4920,14 @@
       </c>
       <c r="C49" s="34"/>
       <c r="D49" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E49" s="35"/>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J49" s="36"/>
       <c r="K49" s="36"/>
@@ -6449,7 +6574,7 @@
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
@@ -6582,7 +6707,7 @@
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
       <c r="AA83" s="14" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AB83" s="14"/>
       <c r="AC83" s="14"/>
@@ -6665,7 +6790,7 @@
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="17"/>
       <c r="B85" s="59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -6719,7 +6844,7 @@
       <c r="A86" s="17"/>
       <c r="B86" s="59"/>
       <c r="C86" s="60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -6771,9 +6896,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="B87" s="59"/>
-      <c r="C87" s="60" t="s">
-        <v>39</v>
-      </c>
+      <c r="C87" s="60"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
@@ -6824,9 +6947,7 @@
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
       <c r="B88" s="59"/>
-      <c r="C88" s="60" t="s">
-        <v>40</v>
-      </c>
+      <c r="C88" s="60"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -6927,7 +7048,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="B90" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
@@ -6981,7 +7102,7 @@
       <c r="A91" s="17"/>
       <c r="B91" s="63"/>
       <c r="C91" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D91" s="64"/>
       <c r="E91" s="64"/>
@@ -7083,7 +7204,7 @@
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="17"/>
       <c r="B93" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="61"/>
@@ -7137,7 +7258,7 @@
       <c r="A94" s="17"/>
       <c r="B94" s="63"/>
       <c r="C94" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D94" s="62"/>
       <c r="E94" s="61"/>
@@ -7230,7 +7351,7 @@
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="17"/>
       <c r="B96" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C96" s="19"/>
       <c r="D96" s="64"/>
@@ -7284,7 +7405,7 @@
       <c r="A97" s="17"/>
       <c r="B97" s="28"/>
       <c r="C97" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D97" s="64"/>
       <c r="E97" s="61"/>
@@ -7387,7 +7508,7 @@
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="17"/>
       <c r="B99" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C99" s="19"/>
       <c r="D99" s="64"/>
@@ -7442,7 +7563,7 @@
       <c r="A100" s="17"/>
       <c r="B100" s="28"/>
       <c r="C100" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D100" s="64"/>
       <c r="E100" s="19"/>
@@ -8631,7 +8752,7 @@
       <c r="Y123" s="13"/>
       <c r="Z123" s="13"/>
       <c r="AA123" s="14" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="AB123" s="14"/>
       <c r="AC123" s="14"/>
@@ -8647,7 +8768,7 @@
       <c r="AK123" s="15"/>
       <c r="AL123" s="15"/>
       <c r="AM123" s="16" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="AN123" s="16"/>
       <c r="AO123" s="16"/>
@@ -8714,7 +8835,7 @@
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="17"/>
       <c r="B125" s="59" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
@@ -9450,7 +9571,9 @@
       <c r="W139" s="19"/>
       <c r="X139" s="19"/>
       <c r="Y139" s="19"/>
-      <c r="Z139" s="19"/>
+      <c r="Z139" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="AA139" s="19"/>
       <c r="AB139" s="19"/>
       <c r="AC139" s="19"/>
@@ -9631,7 +9754,7 @@
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
       <c r="B143" s="71" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
@@ -9788,14 +9911,14 @@
       <c r="B146" s="28"/>
       <c r="C146" s="19"/>
       <c r="D146" s="72" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E146" s="72" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F146" s="72"/>
       <c r="G146" s="72" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H146" s="72"/>
       <c r="I146" s="72"/>
@@ -9812,11 +9935,11 @@
       <c r="T146" s="72"/>
       <c r="U146" s="72"/>
       <c r="V146" s="72" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W146" s="72"/>
       <c r="X146" s="73" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Y146" s="73"/>
       <c r="Z146" s="73"/>
@@ -9852,18 +9975,18 @@
         <v>1</v>
       </c>
       <c r="E147" s="74" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F147" s="74"/>
       <c r="G147" s="75" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H147" s="76"/>
       <c r="I147" s="76"/>
       <c r="J147" s="76"/>
       <c r="K147" s="77"/>
       <c r="L147" s="78" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M147" s="76"/>
       <c r="N147" s="76"/>
@@ -9875,7 +9998,7 @@
       <c r="T147" s="76"/>
       <c r="U147" s="79"/>
       <c r="V147" s="74" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="W147" s="74"/>
       <c r="X147" s="75"/>
@@ -9912,58 +10035,58 @@
       <c r="D148" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="E148" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="F148" s="82"/>
-      <c r="G148" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="H148" s="84"/>
-      <c r="I148" s="84"/>
-      <c r="J148" s="84"/>
-      <c r="K148" s="85"/>
-      <c r="L148" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="M148" s="84"/>
-      <c r="N148" s="84"/>
-      <c r="O148" s="84"/>
-      <c r="P148" s="84"/>
-      <c r="Q148" s="84"/>
-      <c r="R148" s="84"/>
-      <c r="S148" s="84"/>
-      <c r="T148" s="84"/>
-      <c r="U148" s="87"/>
-      <c r="V148" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="W148" s="82"/>
-      <c r="X148" s="83"/>
-      <c r="Y148" s="84"/>
-      <c r="Z148" s="84"/>
-      <c r="AA148" s="84"/>
-      <c r="AB148" s="84"/>
-      <c r="AC148" s="84"/>
-      <c r="AD148" s="84"/>
-      <c r="AE148" s="84"/>
-      <c r="AF148" s="84"/>
-      <c r="AG148" s="84"/>
-      <c r="AH148" s="84"/>
-      <c r="AI148" s="84"/>
-      <c r="AJ148" s="84"/>
-      <c r="AK148" s="84"/>
-      <c r="AL148" s="84"/>
-      <c r="AM148" s="84"/>
-      <c r="AN148" s="84"/>
-      <c r="AO148" s="84"/>
-      <c r="AP148" s="84"/>
-      <c r="AQ148" s="84"/>
-      <c r="AR148" s="84"/>
-      <c r="AS148" s="84"/>
-      <c r="AT148" s="84"/>
-      <c r="AU148" s="84"/>
-      <c r="AV148" s="87"/>
+      <c r="E148" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F148" s="74"/>
+      <c r="G148" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="H148" s="82"/>
+      <c r="I148" s="82"/>
+      <c r="J148" s="82"/>
+      <c r="K148" s="83"/>
+      <c r="L148" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="M148" s="82"/>
+      <c r="N148" s="82"/>
+      <c r="O148" s="82"/>
+      <c r="P148" s="82"/>
+      <c r="Q148" s="82"/>
+      <c r="R148" s="82"/>
+      <c r="S148" s="82"/>
+      <c r="T148" s="82"/>
+      <c r="U148" s="85"/>
+      <c r="V148" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="W148" s="74"/>
+      <c r="X148" s="81"/>
+      <c r="Y148" s="82"/>
+      <c r="Z148" s="82"/>
+      <c r="AA148" s="82"/>
+      <c r="AB148" s="82"/>
+      <c r="AC148" s="82"/>
+      <c r="AD148" s="82"/>
+      <c r="AE148" s="82"/>
+      <c r="AF148" s="82"/>
+      <c r="AG148" s="82"/>
+      <c r="AH148" s="82"/>
+      <c r="AI148" s="82"/>
+      <c r="AJ148" s="82"/>
+      <c r="AK148" s="82"/>
+      <c r="AL148" s="82"/>
+      <c r="AM148" s="82"/>
+      <c r="AN148" s="82"/>
+      <c r="AO148" s="82"/>
+      <c r="AP148" s="82"/>
+      <c r="AQ148" s="82"/>
+      <c r="AR148" s="82"/>
+      <c r="AS148" s="82"/>
+      <c r="AT148" s="82"/>
+      <c r="AU148" s="82"/>
+      <c r="AV148" s="85"/>
       <c r="AW148" s="20"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9973,50 +10096,58 @@
       <c r="D149" s="80" t="n">
         <v>4</v>
       </c>
-      <c r="E149" s="81"/>
-      <c r="F149" s="82"/>
-      <c r="G149" s="83"/>
-      <c r="H149" s="84"/>
-      <c r="I149" s="84"/>
-      <c r="J149" s="84"/>
-      <c r="K149" s="85"/>
-      <c r="L149" s="86"/>
-      <c r="M149" s="84"/>
-      <c r="N149" s="84"/>
-      <c r="O149" s="84"/>
-      <c r="P149" s="84"/>
-      <c r="Q149" s="84"/>
-      <c r="R149" s="84"/>
-      <c r="S149" s="84"/>
-      <c r="T149" s="84"/>
-      <c r="U149" s="87"/>
-      <c r="V149" s="81"/>
-      <c r="W149" s="82"/>
-      <c r="X149" s="83"/>
-      <c r="Y149" s="84"/>
-      <c r="Z149" s="84"/>
-      <c r="AA149" s="84"/>
-      <c r="AB149" s="84"/>
-      <c r="AC149" s="84"/>
-      <c r="AD149" s="84"/>
-      <c r="AE149" s="84"/>
-      <c r="AF149" s="84"/>
-      <c r="AG149" s="84"/>
-      <c r="AH149" s="84"/>
-      <c r="AI149" s="84"/>
-      <c r="AJ149" s="84"/>
-      <c r="AK149" s="84"/>
-      <c r="AL149" s="84"/>
-      <c r="AM149" s="84"/>
-      <c r="AN149" s="84"/>
-      <c r="AO149" s="84"/>
-      <c r="AP149" s="84"/>
-      <c r="AQ149" s="84"/>
-      <c r="AR149" s="84"/>
-      <c r="AS149" s="84"/>
-      <c r="AT149" s="84"/>
-      <c r="AU149" s="84"/>
-      <c r="AV149" s="87"/>
+      <c r="E149" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F149" s="74"/>
+      <c r="G149" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="H149" s="82"/>
+      <c r="I149" s="82"/>
+      <c r="J149" s="82"/>
+      <c r="K149" s="83"/>
+      <c r="L149" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="M149" s="82"/>
+      <c r="N149" s="82"/>
+      <c r="O149" s="82"/>
+      <c r="P149" s="82"/>
+      <c r="Q149" s="82"/>
+      <c r="R149" s="82"/>
+      <c r="S149" s="82"/>
+      <c r="T149" s="82"/>
+      <c r="U149" s="85"/>
+      <c r="V149" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="W149" s="74"/>
+      <c r="X149" s="81"/>
+      <c r="Y149" s="82"/>
+      <c r="Z149" s="82"/>
+      <c r="AA149" s="82"/>
+      <c r="AB149" s="82"/>
+      <c r="AC149" s="82"/>
+      <c r="AD149" s="82"/>
+      <c r="AE149" s="82"/>
+      <c r="AF149" s="82"/>
+      <c r="AG149" s="82"/>
+      <c r="AH149" s="82"/>
+      <c r="AI149" s="82"/>
+      <c r="AJ149" s="82"/>
+      <c r="AK149" s="82"/>
+      <c r="AL149" s="82"/>
+      <c r="AM149" s="82"/>
+      <c r="AN149" s="82"/>
+      <c r="AO149" s="82"/>
+      <c r="AP149" s="82"/>
+      <c r="AQ149" s="82"/>
+      <c r="AR149" s="82"/>
+      <c r="AS149" s="82"/>
+      <c r="AT149" s="82"/>
+      <c r="AU149" s="82"/>
+      <c r="AV149" s="85"/>
       <c r="AW149" s="20"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10026,50 +10157,50 @@
       <c r="D150" s="80" t="n">
         <v>5</v>
       </c>
-      <c r="E150" s="81"/>
-      <c r="F150" s="82"/>
-      <c r="G150" s="83"/>
-      <c r="H150" s="84"/>
-      <c r="I150" s="84"/>
-      <c r="J150" s="84"/>
-      <c r="K150" s="85"/>
-      <c r="L150" s="86"/>
-      <c r="M150" s="84"/>
-      <c r="N150" s="84"/>
-      <c r="O150" s="84"/>
-      <c r="P150" s="84"/>
-      <c r="Q150" s="84"/>
-      <c r="R150" s="84"/>
-      <c r="S150" s="84"/>
-      <c r="T150" s="84"/>
-      <c r="U150" s="87"/>
-      <c r="V150" s="81"/>
-      <c r="W150" s="82"/>
-      <c r="X150" s="83"/>
-      <c r="Y150" s="84"/>
-      <c r="Z150" s="84"/>
-      <c r="AA150" s="84"/>
-      <c r="AB150" s="84"/>
-      <c r="AC150" s="84"/>
-      <c r="AD150" s="84"/>
-      <c r="AE150" s="84"/>
-      <c r="AF150" s="84"/>
-      <c r="AG150" s="84"/>
-      <c r="AH150" s="84"/>
-      <c r="AI150" s="84"/>
-      <c r="AJ150" s="84"/>
-      <c r="AK150" s="84"/>
-      <c r="AL150" s="84"/>
-      <c r="AM150" s="84"/>
-      <c r="AN150" s="84"/>
-      <c r="AO150" s="84"/>
-      <c r="AP150" s="84"/>
-      <c r="AQ150" s="84"/>
-      <c r="AR150" s="84"/>
-      <c r="AS150" s="84"/>
-      <c r="AT150" s="84"/>
-      <c r="AU150" s="84"/>
-      <c r="AV150" s="87"/>
+      <c r="E150" s="86"/>
+      <c r="F150" s="87"/>
+      <c r="G150" s="81"/>
+      <c r="H150" s="82"/>
+      <c r="I150" s="82"/>
+      <c r="J150" s="82"/>
+      <c r="K150" s="83"/>
+      <c r="L150" s="84"/>
+      <c r="M150" s="82"/>
+      <c r="N150" s="82"/>
+      <c r="O150" s="82"/>
+      <c r="P150" s="82"/>
+      <c r="Q150" s="82"/>
+      <c r="R150" s="82"/>
+      <c r="S150" s="82"/>
+      <c r="T150" s="82"/>
+      <c r="U150" s="85"/>
+      <c r="V150" s="86"/>
+      <c r="W150" s="87"/>
+      <c r="X150" s="81"/>
+      <c r="Y150" s="82"/>
+      <c r="Z150" s="82"/>
+      <c r="AA150" s="82"/>
+      <c r="AB150" s="82"/>
+      <c r="AC150" s="82"/>
+      <c r="AD150" s="82"/>
+      <c r="AE150" s="82"/>
+      <c r="AF150" s="82"/>
+      <c r="AG150" s="82"/>
+      <c r="AH150" s="82"/>
+      <c r="AI150" s="82"/>
+      <c r="AJ150" s="82"/>
+      <c r="AK150" s="82"/>
+      <c r="AL150" s="82"/>
+      <c r="AM150" s="82"/>
+      <c r="AN150" s="82"/>
+      <c r="AO150" s="82"/>
+      <c r="AP150" s="82"/>
+      <c r="AQ150" s="82"/>
+      <c r="AR150" s="82"/>
+      <c r="AS150" s="82"/>
+      <c r="AT150" s="82"/>
+      <c r="AU150" s="82"/>
+      <c r="AV150" s="85"/>
       <c r="AW150" s="20"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10079,25 +10210,25 @@
       <c r="D151" s="80" t="n">
         <v>6</v>
       </c>
-      <c r="E151" s="81"/>
-      <c r="F151" s="82"/>
-      <c r="G151" s="83"/>
-      <c r="H151" s="84"/>
-      <c r="I151" s="84"/>
-      <c r="J151" s="84"/>
-      <c r="K151" s="85"/>
-      <c r="L151" s="86"/>
-      <c r="M151" s="84"/>
-      <c r="N151" s="84"/>
-      <c r="O151" s="84"/>
-      <c r="P151" s="84"/>
-      <c r="Q151" s="84"/>
-      <c r="R151" s="84"/>
-      <c r="S151" s="84"/>
-      <c r="T151" s="84"/>
-      <c r="U151" s="87"/>
-      <c r="V151" s="81"/>
-      <c r="W151" s="82"/>
+      <c r="E151" s="86"/>
+      <c r="F151" s="87"/>
+      <c r="G151" s="81"/>
+      <c r="H151" s="82"/>
+      <c r="I151" s="82"/>
+      <c r="J151" s="82"/>
+      <c r="K151" s="83"/>
+      <c r="L151" s="84"/>
+      <c r="M151" s="82"/>
+      <c r="N151" s="82"/>
+      <c r="O151" s="82"/>
+      <c r="P151" s="82"/>
+      <c r="Q151" s="82"/>
+      <c r="R151" s="82"/>
+      <c r="S151" s="82"/>
+      <c r="T151" s="82"/>
+      <c r="U151" s="85"/>
+      <c r="V151" s="86"/>
+      <c r="W151" s="87"/>
       <c r="X151" s="88"/>
       <c r="Y151" s="89"/>
       <c r="Z151" s="89"/>
@@ -10445,7 +10576,7 @@
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
       <c r="E158" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
@@ -10595,7 +10726,7 @@
       <c r="AW160" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
+  <mergeCells count="210">
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="J1:O3"/>
     <mergeCell ref="P1:U3"/>
@@ -10802,6 +10933,10 @@
     <mergeCell ref="X146:AV146"/>
     <mergeCell ref="E147:F147"/>
     <mergeCell ref="V147:W147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="V148:W148"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="V149:W149"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -10821,8 +10956,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V53" activeCellId="0" sqref="V53"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH150" activeCellId="0" sqref="AH150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10890,7 +11025,7 @@
       </c>
       <c r="AN1" s="6"/>
       <c r="AO1" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AP1" s="7"/>
       <c r="AQ1" s="7"/>
@@ -10990,7 +11125,7 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
       <c r="AA3" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
@@ -11006,7 +11141,7 @@
       <c r="AK3" s="15"/>
       <c r="AL3" s="15"/>
       <c r="AM3" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AN3" s="16"/>
       <c r="AO3" s="16"/>
@@ -11071,7 +11206,7 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17"/>
       <c r="B5" s="59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AM5" s="19"/>
       <c r="AN5" s="19"/>
@@ -11535,7 +11670,7 @@
       </c>
       <c r="AN41" s="6"/>
       <c r="AO41" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
@@ -11635,7 +11770,7 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB43" s="14"/>
       <c r="AC43" s="14"/>
@@ -11651,7 +11786,7 @@
       <c r="AK43" s="15"/>
       <c r="AL43" s="15"/>
       <c r="AM43" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AN43" s="16"/>
       <c r="AO43" s="16"/>
@@ -11672,7 +11807,7 @@
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
       <c r="B45" s="59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -11705,7 +11840,7 @@
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
       <c r="C47" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AM47" s="19"/>
       <c r="AN47" s="19"/>
@@ -11720,10 +11855,10 @@
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="17"/>
       <c r="C48" s="72" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D48" s="72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E48" s="72"/>
       <c r="F48" s="72"/>
@@ -11731,39 +11866,39 @@
       <c r="H48" s="72"/>
       <c r="I48" s="72"/>
       <c r="J48" s="104" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K48" s="104"/>
       <c r="L48" s="104"/>
       <c r="M48" s="104"/>
       <c r="N48" s="104" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O48" s="104"/>
       <c r="P48" s="104"/>
       <c r="Q48" s="72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R48" s="72"/>
       <c r="S48" s="72"/>
       <c r="T48" s="72" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U48" s="72"/>
       <c r="V48" s="73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W48" s="73"/>
       <c r="X48" s="73"/>
       <c r="Y48" s="73"/>
       <c r="Z48" s="105" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA48" s="105"/>
       <c r="AB48" s="105"/>
       <c r="AC48" s="105"/>
       <c r="AD48" s="73" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AE48" s="73"/>
       <c r="AF48" s="73"/>
@@ -11792,7 +11927,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="108" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E49" s="109"/>
       <c r="F49" s="109"/>
@@ -11800,7 +11935,7 @@
       <c r="H49" s="110"/>
       <c r="I49" s="111"/>
       <c r="J49" s="112" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K49" s="110"/>
       <c r="L49" s="110"/>
@@ -11812,15 +11947,15 @@
       <c r="P49" s="110"/>
       <c r="Q49" s="112"/>
       <c r="R49" s="110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S49" s="113"/>
       <c r="T49" s="107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U49" s="107"/>
       <c r="V49" s="108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W49" s="109"/>
       <c r="X49" s="109"/>
@@ -11857,7 +11992,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="118" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E50" s="119"/>
       <c r="F50" s="119"/>
@@ -11865,7 +12000,7 @@
       <c r="H50" s="120"/>
       <c r="I50" s="121"/>
       <c r="J50" s="112" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K50" s="120"/>
       <c r="L50" s="120"/>
@@ -11875,15 +12010,15 @@
       <c r="P50" s="120"/>
       <c r="Q50" s="122"/>
       <c r="R50" s="110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S50" s="123"/>
       <c r="T50" s="107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U50" s="107"/>
       <c r="V50" s="108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W50" s="119"/>
       <c r="X50" s="119"/>
@@ -11920,7 +12055,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="118" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E51" s="119"/>
       <c r="F51" s="119"/>
@@ -11928,7 +12063,7 @@
       <c r="H51" s="120"/>
       <c r="I51" s="121"/>
       <c r="J51" s="112" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K51" s="120"/>
       <c r="L51" s="120"/>
@@ -11938,15 +12073,15 @@
       <c r="P51" s="120"/>
       <c r="Q51" s="122"/>
       <c r="R51" s="110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S51" s="123"/>
       <c r="T51" s="107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U51" s="107"/>
       <c r="V51" s="108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W51" s="119"/>
       <c r="X51" s="119"/>
@@ -11983,7 +12118,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="128" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E52" s="129"/>
       <c r="F52" s="129"/>
@@ -11991,7 +12126,7 @@
       <c r="H52" s="130"/>
       <c r="I52" s="131"/>
       <c r="J52" s="112" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K52" s="130"/>
       <c r="L52" s="130"/>
@@ -12001,15 +12136,15 @@
       <c r="P52" s="130"/>
       <c r="Q52" s="132"/>
       <c r="R52" s="110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S52" s="133"/>
       <c r="T52" s="107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U52" s="107"/>
       <c r="V52" s="108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W52" s="129"/>
       <c r="X52" s="129"/>
@@ -12046,7 +12181,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="128" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E53" s="129"/>
       <c r="F53" s="129"/>
@@ -12054,7 +12189,7 @@
       <c r="H53" s="130"/>
       <c r="I53" s="131"/>
       <c r="J53" s="132" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K53" s="130"/>
       <c r="L53" s="130"/>
@@ -12064,15 +12199,15 @@
       <c r="P53" s="130"/>
       <c r="Q53" s="132"/>
       <c r="R53" s="110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S53" s="133"/>
       <c r="T53" s="107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U53" s="107"/>
       <c r="V53" s="128" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W53" s="129"/>
       <c r="X53" s="129"/>
@@ -12109,7 +12244,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="137" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E54" s="138"/>
       <c r="F54" s="138"/>
@@ -12117,7 +12252,7 @@
       <c r="H54" s="139"/>
       <c r="I54" s="140"/>
       <c r="J54" s="141" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K54" s="139"/>
       <c r="L54" s="139"/>
@@ -12127,15 +12262,15 @@
       <c r="P54" s="139"/>
       <c r="Q54" s="141"/>
       <c r="R54" s="110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S54" s="142"/>
       <c r="T54" s="107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U54" s="107"/>
       <c r="V54" s="137" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W54" s="138"/>
       <c r="X54" s="138"/>
@@ -12270,7 +12405,7 @@
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="17"/>
       <c r="C57" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
@@ -12321,10 +12456,10 @@
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="99"/>
       <c r="C58" s="151" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D58" s="72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E58" s="72"/>
       <c r="F58" s="72"/>
@@ -12336,7 +12471,7 @@
       <c r="L58" s="72"/>
       <c r="M58" s="72"/>
       <c r="N58" s="152" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O58" s="152"/>
       <c r="P58" s="152"/>
@@ -12348,7 +12483,7 @@
       <c r="V58" s="152"/>
       <c r="W58" s="152"/>
       <c r="X58" s="73" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Y58" s="73"/>
       <c r="Z58" s="73"/>
@@ -12432,7 +12567,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="154" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E59" s="155"/>
       <c r="F59" s="155"/>
@@ -12444,7 +12579,7 @@
       <c r="L59" s="155"/>
       <c r="M59" s="156"/>
       <c r="N59" s="154" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O59" s="155"/>
       <c r="P59" s="155"/>
@@ -12586,7 +12721,7 @@
       <c r="A61" s="17"/>
       <c r="B61" s="28"/>
       <c r="C61" s="159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D61" s="159"/>
       <c r="E61" s="159"/>
@@ -12639,10 +12774,10 @@
       <c r="A62" s="17"/>
       <c r="B62" s="28"/>
       <c r="C62" s="72" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D62" s="161" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E62" s="161"/>
       <c r="F62" s="161"/>
@@ -12654,14 +12789,14 @@
       <c r="L62" s="162"/>
       <c r="M62" s="163"/>
       <c r="N62" s="72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O62" s="72"/>
       <c r="P62" s="72"/>
       <c r="Q62" s="72"/>
       <c r="R62" s="72"/>
       <c r="S62" s="72" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T62" s="72"/>
       <c r="U62" s="72"/>
@@ -12678,7 +12813,7 @@
       <c r="AF62" s="72"/>
       <c r="AG62" s="72"/>
       <c r="AH62" s="72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AI62" s="72"/>
       <c r="AJ62" s="72"/>
@@ -12703,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="164" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E63" s="165"/>
       <c r="F63" s="165"/>
@@ -12715,7 +12850,7 @@
       <c r="L63" s="166"/>
       <c r="M63" s="167"/>
       <c r="N63" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O63" s="166"/>
       <c r="P63" s="166"/>
@@ -12760,7 +12895,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="173" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E64" s="174"/>
       <c r="F64" s="174"/>
@@ -12772,7 +12907,7 @@
       <c r="L64" s="175"/>
       <c r="M64" s="176"/>
       <c r="N64" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O64" s="175"/>
       <c r="P64" s="175"/>
@@ -12817,7 +12952,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="164" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E65" s="165"/>
       <c r="F65" s="165"/>
@@ -12829,7 +12964,7 @@
       <c r="L65" s="166"/>
       <c r="M65" s="167"/>
       <c r="N65" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O65" s="166"/>
       <c r="P65" s="166"/>
@@ -12874,7 +13009,7 @@
         <v>4</v>
       </c>
       <c r="D66" s="173" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E66" s="174"/>
       <c r="F66" s="174"/>
@@ -12886,7 +13021,7 @@
       <c r="L66" s="175"/>
       <c r="M66" s="176"/>
       <c r="N66" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O66" s="175"/>
       <c r="P66" s="175"/>
@@ -12931,7 +13066,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="173" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E67" s="174"/>
       <c r="F67" s="174"/>
@@ -12943,7 +13078,7 @@
       <c r="L67" s="175"/>
       <c r="M67" s="176"/>
       <c r="N67" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O67" s="175"/>
       <c r="P67" s="175"/>
@@ -12988,7 +13123,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="173" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E68" s="174"/>
       <c r="F68" s="174"/>
@@ -13000,7 +13135,7 @@
       <c r="L68" s="175"/>
       <c r="M68" s="176"/>
       <c r="N68" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O68" s="175"/>
       <c r="P68" s="175"/>
@@ -13045,7 +13180,7 @@
         <v>7</v>
       </c>
       <c r="D69" s="173" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E69" s="174"/>
       <c r="F69" s="174"/>
@@ -13057,7 +13192,7 @@
       <c r="L69" s="175"/>
       <c r="M69" s="176"/>
       <c r="N69" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O69" s="175"/>
       <c r="P69" s="175"/>
@@ -13102,7 +13237,7 @@
         <v>8</v>
       </c>
       <c r="D70" s="173" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E70" s="174"/>
       <c r="F70" s="174"/>
@@ -13114,7 +13249,7 @@
       <c r="L70" s="175"/>
       <c r="M70" s="176"/>
       <c r="N70" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O70" s="175"/>
       <c r="P70" s="175"/>
@@ -13756,7 +13891,7 @@
       </c>
       <c r="AN82" s="6"/>
       <c r="AO82" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AP82" s="7"/>
       <c r="AQ82" s="7"/>
@@ -13856,7 +13991,7 @@
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
       <c r="AA84" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB84" s="14"/>
       <c r="AC84" s="14"/>
@@ -13872,7 +14007,7 @@
       <c r="AK84" s="15"/>
       <c r="AL84" s="15"/>
       <c r="AM84" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AN84" s="16"/>
       <c r="AO84" s="16"/>
@@ -13902,7 +14037,7 @@
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
       <c r="B86" s="59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -13935,7 +14070,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="C87" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
@@ -13968,7 +14103,7 @@
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
       <c r="D88" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -14030,7 +14165,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="C90" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -14063,7 +14198,7 @@
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="17"/>
       <c r="D91" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
@@ -14095,7 +14230,7 @@
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="17"/>
       <c r="D92" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
@@ -14127,7 +14262,7 @@
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="17"/>
       <c r="D93" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
@@ -15050,7 +15185,7 @@
       </c>
       <c r="AN122" s="6"/>
       <c r="AO122" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AP122" s="7"/>
       <c r="AQ122" s="7"/>
@@ -15150,7 +15285,7 @@
       <c r="Y124" s="13"/>
       <c r="Z124" s="13"/>
       <c r="AA124" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB124" s="14"/>
       <c r="AC124" s="14"/>
@@ -15166,7 +15301,7 @@
       <c r="AK124" s="15"/>
       <c r="AL124" s="15"/>
       <c r="AM124" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AN124" s="16"/>
       <c r="AO124" s="16"/>
@@ -15212,7 +15347,7 @@
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
       <c r="B126" s="59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -15245,7 +15380,7 @@
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
       <c r="C127" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
@@ -15278,7 +15413,7 @@
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="17"/>
       <c r="D128" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
@@ -15310,7 +15445,7 @@
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="17"/>
       <c r="B129" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AL129" s="19"/>
       <c r="AM129" s="19"/>
@@ -15326,10 +15461,10 @@
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="0"/>
       <c r="B130" s="72" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C130" s="72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D130" s="72"/>
       <c r="E130" s="72"/>
@@ -15337,39 +15472,39 @@
       <c r="G130" s="72"/>
       <c r="H130" s="72"/>
       <c r="I130" s="104" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J130" s="104"/>
       <c r="K130" s="104"/>
       <c r="L130" s="104"/>
       <c r="M130" s="104" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N130" s="104"/>
       <c r="O130" s="104"/>
       <c r="P130" s="72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q130" s="72"/>
       <c r="R130" s="72"/>
       <c r="S130" s="72" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T130" s="72"/>
       <c r="U130" s="73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V130" s="73"/>
       <c r="W130" s="73"/>
       <c r="X130" s="73"/>
       <c r="Y130" s="105" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z130" s="105"/>
       <c r="AA130" s="105"/>
       <c r="AB130" s="105"/>
       <c r="AC130" s="73" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AD130" s="73"/>
       <c r="AE130" s="73"/>
@@ -15399,7 +15534,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="108" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D131" s="109"/>
       <c r="E131" s="109"/>
@@ -15407,7 +15542,7 @@
       <c r="G131" s="110"/>
       <c r="H131" s="111"/>
       <c r="I131" s="112" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J131" s="110"/>
       <c r="K131" s="110"/>
@@ -15419,15 +15554,15 @@
       <c r="O131" s="110"/>
       <c r="P131" s="112"/>
       <c r="Q131" s="110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R131" s="113"/>
       <c r="S131" s="107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T131" s="107"/>
       <c r="U131" s="108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="V131" s="109"/>
       <c r="W131" s="109"/>
@@ -15465,7 +15600,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="118" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D132" s="119"/>
       <c r="E132" s="119"/>
@@ -15473,7 +15608,7 @@
       <c r="G132" s="120"/>
       <c r="H132" s="121"/>
       <c r="I132" s="112" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J132" s="120"/>
       <c r="K132" s="120"/>
@@ -15483,15 +15618,15 @@
       <c r="O132" s="120"/>
       <c r="P132" s="122"/>
       <c r="Q132" s="110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R132" s="123"/>
       <c r="S132" s="107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T132" s="107"/>
       <c r="U132" s="108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="V132" s="119"/>
       <c r="W132" s="119"/>
@@ -15529,7 +15664,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="118" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D133" s="119"/>
       <c r="E133" s="119"/>
@@ -15537,7 +15672,7 @@
       <c r="G133" s="120"/>
       <c r="H133" s="121"/>
       <c r="I133" s="112" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J133" s="120"/>
       <c r="K133" s="120"/>
@@ -15547,15 +15682,15 @@
       <c r="O133" s="120"/>
       <c r="P133" s="122"/>
       <c r="Q133" s="110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R133" s="123"/>
       <c r="S133" s="107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T133" s="107"/>
       <c r="U133" s="108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="V133" s="119"/>
       <c r="W133" s="119"/>
@@ -15593,7 +15728,7 @@
         <v>4</v>
       </c>
       <c r="C134" s="128" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D134" s="129"/>
       <c r="E134" s="129"/>
@@ -15601,7 +15736,7 @@
       <c r="G134" s="130"/>
       <c r="H134" s="131"/>
       <c r="I134" s="112" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J134" s="130"/>
       <c r="K134" s="130"/>
@@ -15611,15 +15746,15 @@
       <c r="O134" s="130"/>
       <c r="P134" s="132"/>
       <c r="Q134" s="110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R134" s="133"/>
       <c r="S134" s="107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T134" s="107"/>
       <c r="U134" s="108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="V134" s="129"/>
       <c r="W134" s="129"/>
@@ -15657,7 +15792,7 @@
         <v>5</v>
       </c>
       <c r="C135" s="128" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D135" s="129"/>
       <c r="E135" s="129"/>
@@ -15665,7 +15800,7 @@
       <c r="G135" s="130"/>
       <c r="H135" s="131"/>
       <c r="I135" s="132" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J135" s="130"/>
       <c r="K135" s="130"/>
@@ -15675,15 +15810,15 @@
       <c r="O135" s="130"/>
       <c r="P135" s="132"/>
       <c r="Q135" s="110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R135" s="133"/>
       <c r="S135" s="107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T135" s="107"/>
       <c r="U135" s="128" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V135" s="129"/>
       <c r="W135" s="129"/>
@@ -15721,7 +15856,7 @@
         <v>6</v>
       </c>
       <c r="C136" s="137" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D136" s="138"/>
       <c r="E136" s="138"/>
@@ -15729,7 +15864,7 @@
       <c r="G136" s="139"/>
       <c r="H136" s="140"/>
       <c r="I136" s="141" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J136" s="139"/>
       <c r="K136" s="139"/>
@@ -15739,15 +15874,15 @@
       <c r="O136" s="139"/>
       <c r="P136" s="141"/>
       <c r="Q136" s="110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R136" s="142"/>
       <c r="S136" s="107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T136" s="107"/>
       <c r="U136" s="137" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="V136" s="138"/>
       <c r="W136" s="138"/>
@@ -15886,7 +16021,7 @@
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="0"/>
       <c r="B139" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C139" s="19"/>
       <c r="D139" s="19"/>
@@ -15940,10 +16075,10 @@
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="0"/>
       <c r="B140" s="151" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C140" s="72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D140" s="72"/>
       <c r="E140" s="72"/>
@@ -15955,7 +16090,7 @@
       <c r="K140" s="72"/>
       <c r="L140" s="72"/>
       <c r="M140" s="152" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N140" s="152"/>
       <c r="O140" s="152"/>
@@ -15967,7 +16102,7 @@
       <c r="U140" s="152"/>
       <c r="V140" s="152"/>
       <c r="W140" s="73" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X140" s="73"/>
       <c r="Y140" s="73"/>
@@ -16003,7 +16138,7 @@
         <v>1</v>
       </c>
       <c r="C141" s="154" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D141" s="155"/>
       <c r="E141" s="155"/>
@@ -16015,7 +16150,7 @@
       <c r="K141" s="155"/>
       <c r="L141" s="156"/>
       <c r="M141" s="154" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N141" s="155"/>
       <c r="O141" s="155"/>
@@ -16107,7 +16242,7 @@
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
       <c r="B143" s="159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C143" s="159"/>
       <c r="D143" s="159"/>
@@ -16160,10 +16295,10 @@
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
       <c r="B144" s="72" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C144" s="161" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D144" s="161"/>
       <c r="E144" s="161"/>
@@ -16175,14 +16310,14 @@
       <c r="K144" s="162"/>
       <c r="L144" s="163"/>
       <c r="M144" s="72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N144" s="72"/>
       <c r="O144" s="72"/>
       <c r="P144" s="72"/>
       <c r="Q144" s="72"/>
       <c r="R144" s="72" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S144" s="72"/>
       <c r="T144" s="72"/>
@@ -16199,7 +16334,7 @@
       <c r="AE144" s="72"/>
       <c r="AF144" s="72"/>
       <c r="AG144" s="72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AH144" s="72"/>
       <c r="AI144" s="72"/>
@@ -16224,7 +16359,7 @@
         <v>1</v>
       </c>
       <c r="C145" s="164" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D145" s="165"/>
       <c r="E145" s="165"/>
@@ -16236,7 +16371,7 @@
       <c r="K145" s="166"/>
       <c r="L145" s="167"/>
       <c r="M145" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N145" s="166"/>
       <c r="O145" s="166"/>
@@ -16281,7 +16416,7 @@
         <v>2</v>
       </c>
       <c r="C146" s="173" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D146" s="174"/>
       <c r="E146" s="174"/>
@@ -16293,7 +16428,7 @@
       <c r="K146" s="175"/>
       <c r="L146" s="176"/>
       <c r="M146" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N146" s="175"/>
       <c r="O146" s="175"/>
@@ -16339,7 +16474,7 @@
         <v>3</v>
       </c>
       <c r="C147" s="164" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D147" s="165"/>
       <c r="E147" s="165"/>
@@ -16351,7 +16486,7 @@
       <c r="K147" s="166"/>
       <c r="L147" s="167"/>
       <c r="M147" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N147" s="166"/>
       <c r="O147" s="166"/>
@@ -16397,7 +16532,7 @@
         <v>4</v>
       </c>
       <c r="C148" s="173" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D148" s="174"/>
       <c r="E148" s="174"/>
@@ -16409,7 +16544,7 @@
       <c r="K148" s="175"/>
       <c r="L148" s="176"/>
       <c r="M148" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N148" s="175"/>
       <c r="O148" s="175"/>
@@ -16466,7 +16601,7 @@
         <v>5</v>
       </c>
       <c r="C149" s="173" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D149" s="174"/>
       <c r="E149" s="174"/>
@@ -16478,7 +16613,7 @@
       <c r="K149" s="175"/>
       <c r="L149" s="176"/>
       <c r="M149" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N149" s="175"/>
       <c r="O149" s="175"/>
@@ -16523,7 +16658,7 @@
         <v>6</v>
       </c>
       <c r="C150" s="173" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D150" s="174"/>
       <c r="E150" s="174"/>
@@ -16535,7 +16670,7 @@
       <c r="K150" s="175"/>
       <c r="L150" s="176"/>
       <c r="M150" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N150" s="175"/>
       <c r="O150" s="175"/>
@@ -16580,7 +16715,7 @@
         <v>7</v>
       </c>
       <c r="C151" s="173" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D151" s="174"/>
       <c r="E151" s="174"/>
@@ -16592,7 +16727,7 @@
       <c r="K151" s="175"/>
       <c r="L151" s="176"/>
       <c r="M151" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N151" s="175"/>
       <c r="O151" s="175"/>
@@ -16637,7 +16772,7 @@
         <v>8</v>
       </c>
       <c r="C152" s="173" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D152" s="174"/>
       <c r="E152" s="174"/>
@@ -16649,7 +16784,7 @@
       <c r="K152" s="175"/>
       <c r="L152" s="176"/>
       <c r="M152" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N152" s="175"/>
       <c r="O152" s="175"/>
@@ -16745,7 +16880,7 @@
       <c r="A154" s="186"/>
       <c r="B154" s="99"/>
       <c r="C154" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AW154" s="20"/>
       <c r="AKO154" s="0"/>
@@ -16801,7 +16936,7 @@
       <c r="A155" s="186"/>
       <c r="B155" s="99"/>
       <c r="D155" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AW155" s="20"/>
       <c r="AKO155" s="0"/>
@@ -16857,7 +16992,7 @@
       <c r="A156" s="186"/>
       <c r="B156" s="99"/>
       <c r="D156" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AW156" s="20"/>
       <c r="AKO156" s="0"/>
@@ -16913,10 +17048,10 @@
       <c r="A157" s="186"/>
       <c r="B157" s="99"/>
       <c r="C157" s="187" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D157" s="188" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E157" s="188"/>
       <c r="F157" s="188"/>
@@ -16926,7 +17061,7 @@
       <c r="J157" s="188"/>
       <c r="K157" s="188"/>
       <c r="L157" s="188" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M157" s="188"/>
       <c r="N157" s="188"/>
@@ -16950,7 +17085,7 @@
       <c r="AF157" s="188"/>
       <c r="AG157" s="188"/>
       <c r="AH157" s="188" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AI157" s="188"/>
       <c r="AJ157" s="188"/>
@@ -17020,7 +17155,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="190" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E158" s="191"/>
       <c r="F158" s="191"/>
@@ -17030,7 +17165,7 @@
       <c r="J158" s="192"/>
       <c r="K158" s="193"/>
       <c r="L158" s="194" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M158" s="191"/>
       <c r="N158" s="191"/>
@@ -17053,7 +17188,9 @@
       <c r="AE158" s="195"/>
       <c r="AF158" s="195"/>
       <c r="AG158" s="196"/>
-      <c r="AH158" s="197"/>
+      <c r="AH158" s="197" t="s">
+        <v>116</v>
+      </c>
       <c r="AI158" s="198"/>
       <c r="AJ158" s="198"/>
       <c r="AK158" s="198"/>
@@ -17215,13 +17352,13 @@
       <c r="A160" s="186"/>
       <c r="B160" s="99"/>
       <c r="C160" s="206" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D160" s="207"/>
       <c r="E160" s="207"/>
       <c r="F160" s="208"/>
       <c r="G160" s="209" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H160" s="209"/>
       <c r="I160" s="209"/>
@@ -17250,7 +17387,7 @@
       <c r="AF160" s="209"/>
       <c r="AG160" s="209"/>
       <c r="AH160" s="209" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI160" s="209"/>
       <c r="AJ160" s="209"/>
@@ -17317,13 +17454,13 @@
       <c r="A161" s="186"/>
       <c r="B161" s="145"/>
       <c r="C161" s="210" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D161" s="210"/>
       <c r="E161" s="210"/>
       <c r="F161" s="210"/>
       <c r="G161" s="211" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H161" s="212"/>
       <c r="I161" s="212"/>
@@ -17372,13 +17509,13 @@
       <c r="A162" s="186"/>
       <c r="B162" s="0"/>
       <c r="C162" s="215" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D162" s="215"/>
       <c r="E162" s="215"/>
       <c r="F162" s="215"/>
       <c r="G162" s="216" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H162" s="217"/>
       <c r="I162" s="217"/>
@@ -17635,7 +17772,7 @@
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="17"/>
       <c r="D168" s="221" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E168" s="24"/>
       <c r="F168" s="24"/>
